--- a/data/trans_orig/P14_n_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6192470082691115</v>
+        <v>0.6300221206686671</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6368132663256223</v>
+        <v>0.6279352353976437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7928868977954393</v>
+        <v>0.7931861222308556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.181303875703497</v>
+        <v>1.190628740894254</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7818113550165466</v>
+        <v>0.800821172246878</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.830789716958527</v>
+        <v>0.8604654562262682</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8619045272131634</v>
+        <v>0.8777128285633823</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.503375824661408</v>
+        <v>1.526963451990719</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7283293240217112</v>
+        <v>0.7301019883795112</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7622525768332656</v>
+        <v>0.7544224502916339</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8622079359280277</v>
+        <v>0.8577372262569133</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.39440186464235</v>
+        <v>1.383801172449907</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8698429301355428</v>
+        <v>0.8757654615105657</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8589425149796217</v>
+        <v>0.851282557767288</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.146198916629769</v>
+        <v>1.163975604237551</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.488017443523929</v>
+        <v>1.483610949029673</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.13568961385413</v>
+        <v>1.156151701699484</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.256433516319398</v>
+        <v>1.243863642012857</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.253539187719901</v>
+        <v>1.261850274532098</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.873475798598601</v>
+        <v>1.881232580580731</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9251125054179649</v>
+        <v>0.9376399617520328</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9797331406201452</v>
+        <v>0.965897120057666</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.131233057976352</v>
+        <v>1.134733708852849</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1.619049050205977</v>
+        <v>1.608529258148965</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5991259112503668</v>
+        <v>0.5794736311594261</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6766914741525337</v>
+        <v>0.6807526844237993</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6864567428524613</v>
+        <v>0.6977884288072499</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.171746920577363</v>
+        <v>1.168116391167821</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.851764336775397</v>
+        <v>0.8587701608125875</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9374480593176809</v>
+        <v>0.9221320694185994</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8477846563012578</v>
+        <v>0.8604664351925332</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.57204827069005</v>
+        <v>1.557436220357706</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7593782635726112</v>
+        <v>0.7651127056721176</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8235284572100693</v>
+        <v>0.828189947524827</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8085861722791728</v>
+        <v>0.8037345808665149</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.39664881797255</v>
+        <v>1.402948422702098</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8774330476066154</v>
+        <v>0.8808846198333129</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9555147510652905</v>
+        <v>0.9543932604555668</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.96445408716132</v>
+        <v>0.9818871674685098</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.481329567060016</v>
+        <v>1.482431514391454</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.151836782087875</v>
+        <v>1.16898383959171</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.266813752705047</v>
+        <v>1.262881535728682</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.217484878051369</v>
+        <v>1.205154766285971</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.91358641410783</v>
+        <v>1.917132168313324</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9744193339349692</v>
+        <v>0.973876678040106</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.031524345298624</v>
+        <v>1.054560924591022</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.039124089035945</v>
+        <v>1.037850105576207</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.620887887765507</v>
+        <v>1.631052305010219</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8124101172496869</v>
+        <v>0.8185028596406972</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.081903730100189</v>
+        <v>1.062605736224747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9255030206547024</v>
+        <v>0.9180516640393194</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.490403427678138</v>
+        <v>1.489740637357349</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.12694085585733</v>
+        <v>1.139797580745133</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.366737110009718</v>
+        <v>1.373340888019588</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.589575634195912</v>
+        <v>1.593605762088668</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.369290131763274</v>
+        <v>2.359267288700686</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9361606474016285</v>
+        <v>0.9348760740958171</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.196227689033894</v>
+        <v>1.20984323847233</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.125430032859357</v>
+        <v>1.127302981276567</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.802899314555733</v>
+        <v>1.797193126304272</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.060638038323309</v>
+        <v>1.057633122139432</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.395700817095982</v>
+        <v>1.363671431696968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.18845143579312</v>
+        <v>1.181553169777943</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.944421625555231</v>
+        <v>1.917337599509335</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.791363001918527</v>
+        <v>1.802475149744576</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.847088704712841</v>
+        <v>1.870749169143707</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.546217484456085</v>
+        <v>2.540364629736128</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.00867317677769</v>
+        <v>2.999256737206313</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.175982428306181</v>
+        <v>1.173793806254374</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1.463698622640896</v>
+        <v>1.472978456156054</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.440041745722076</v>
+        <v>1.445133408069235</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.161830224902503</v>
+        <v>2.164263600239506</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>1.121992038838284</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>1.732856047964992</v>
+        <v>1.732856047964993</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9563532887064509</v>
+        <v>0.9649152650820172</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.048552355408827</v>
+        <v>1.055512244486197</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9389711495013549</v>
+        <v>0.9324891318188642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.471613891818289</v>
+        <v>1.469100008668445</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.132656017009822</v>
+        <v>1.131682213049525</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.139538504595172</v>
+        <v>1.14868368599704</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.129566999455409</v>
+        <v>1.123905114785415</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.770211069458294</v>
+        <v>1.772957647116453</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.048605391725249</v>
+        <v>1.056440836336598</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.11850349503653</v>
+        <v>1.124794424472171</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.04130539860929</v>
+        <v>1.045387406572706</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.647348562356189</v>
+        <v>1.637793179040407</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.143767864344199</v>
+        <v>1.137404982741595</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.250646631991358</v>
+        <v>1.260262804913928</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.120143639712128</v>
+        <v>1.114746839706151</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.724365669709205</v>
+        <v>1.741380459731354</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.391798897018028</v>
+        <v>1.389902526009008</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.412155149692533</v>
+        <v>1.413932358950118</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.423174479537831</v>
+        <v>1.421073817277746</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.044109377125582</v>
+        <v>2.045154815410884</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.19711961553453</v>
+        <v>1.198504477658836</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.290400006887807</v>
+        <v>1.292366761135447</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.204630567920597</v>
+        <v>1.199492279364482</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.84376012210478</v>
+        <v>1.83638028758003</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>1.669120980867947</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>2.330614010010553</v>
+        <v>2.330614010010554</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8433034962000284</v>
+        <v>0.8491228322283543</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8514782192784083</v>
+        <v>0.8685641581667511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.057374129279191</v>
+        <v>1.059828898817289</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.382625059428006</v>
+        <v>1.374567052383152</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.2607572941065</v>
+        <v>1.26409725981213</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.896174276193081</v>
+        <v>1.903203347547914</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.868431041048986</v>
+        <v>1.896768933801226</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.703736305072347</v>
+        <v>2.697388746488283</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.13833939115952</v>
+        <v>1.141037799219566</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.507842674824745</v>
+        <v>1.530148238236158</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.551504401579483</v>
+        <v>1.540351090583553</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.195793083508243</v>
+        <v>2.210990908681499</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.216118568925153</v>
+        <v>1.222826281746746</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.144268101927895</v>
+        <v>1.167162058451616</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.355573909701421</v>
+        <v>1.355179467327488</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.729251522460205</v>
+        <v>1.714931348442004</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.570017219517956</v>
+        <v>1.568364301455934</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.286702395520114</v>
+        <v>2.285112590055925</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.265030011972111</v>
+        <v>2.261724682639291</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.05561917663264</v>
+        <v>3.050277055073942</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.381168387553045</v>
+        <v>1.371543709861498</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.777597366547164</v>
+        <v>1.773360313707143</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.8035198688423</v>
+        <v>1.797454931135447</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>2.461380287584952</v>
+        <v>2.466405440092954</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.3193776783605602</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6209678156574855</v>
+        <v>0.6209678156574853</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>1.646038544800505</v>
@@ -1361,7 +1361,7 @@
         <v>1.966163477548973</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>2.357397620120075</v>
+        <v>2.357397620120076</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>1.370030707418482</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1573207685257455</v>
+        <v>0.1542981321353034</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2397525674396164</v>
+        <v>0.2362169627057267</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2451813421620068</v>
+        <v>0.2430330881863189</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4377985683942683</v>
+        <v>0.4474183109669529</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.54162515697105</v>
+        <v>1.537247629620913</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.962690017720335</v>
+        <v>1.948073743339897</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.810252516137032</v>
+        <v>1.811322235629458</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.182757067983758</v>
+        <v>2.17718013436598</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.284869709563423</v>
+        <v>1.27180011592338</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.626044867390207</v>
+        <v>1.639776876971542</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.491995500858649</v>
+        <v>1.493770338346081</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>1.818350428669283</v>
+        <v>1.821900078568907</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2908109400491697</v>
+        <v>0.2938780491211259</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4454889153134073</v>
+        <v>0.430006831061442</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4388305351488581</v>
+        <v>0.427323083968657</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8541105011442974</v>
+        <v>0.8435962008004461</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>1.767022074117016</v>
+        <v>1.75334678240903</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>2.251898120945531</v>
+        <v>2.257123808958685</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.133045098921244</v>
+        <v>2.14182464023339</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.53961108458032</v>
+        <v>2.536894782847073</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>1.474976393238156</v>
+        <v>1.468874939660557</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1.893812109666724</v>
+        <v>1.900134243369197</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.763427271319753</v>
+        <v>1.763420070695265</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>2.129113390363699</v>
+        <v>2.143473399841197</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8150287260871579</v>
+        <v>0.818387936415966</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9261049031214048</v>
+        <v>0.9268987354012045</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9081525441926667</v>
+        <v>0.9118924092705781</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.386612750680518</v>
+        <v>1.379780096789305</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.313564454462745</v>
+        <v>1.316664555609984</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.613055468147038</v>
+        <v>1.615783639291055</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.55561525595587</v>
+        <v>1.552124741847423</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.148371878542612</v>
+        <v>2.150844235482319</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.085669729350456</v>
+        <v>1.08662406857659</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.293599995175158</v>
+        <v>1.294908985296159</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.252749876917275</v>
+        <v>1.250729305547434</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>1.795958348889083</v>
+        <v>1.800641367720384</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.916944360413573</v>
+        <v>0.9154407712812738</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.035276519043404</v>
+        <v>1.033800102301793</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.015347134678816</v>
+        <v>1.017674690897175</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.529212219843102</v>
+        <v>1.522153888769998</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.437987827901533</v>
+        <v>1.442361856912138</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.765990068829528</v>
+        <v>1.767310129983045</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.718842385123562</v>
+        <v>1.708333027667033</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.292177162362579</v>
+        <v>2.303479543116267</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.169149402423168</v>
+        <v>1.16212169905629</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1.392487350611864</v>
+        <v>1.390377035921891</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1.358643407324734</v>
+        <v>1.354098127899269</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>1.899543565009486</v>
+        <v>1.905637881833272</v>
       </c>
     </row>
     <row r="25">
